--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H2">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I2">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J2">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N2">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O2">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P2">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q2">
-        <v>1.380798774276156</v>
+        <v>1.4592204287895</v>
       </c>
       <c r="R2">
-        <v>1.380798774276156</v>
+        <v>5.836881715158</v>
       </c>
       <c r="S2">
-        <v>0.01093117874440539</v>
+        <v>0.01035204078190486</v>
       </c>
       <c r="T2">
-        <v>0.01093117874440539</v>
+        <v>0.006148078748117099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H3">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I3">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J3">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N3">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O3">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P3">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q3">
-        <v>2.375977227622171</v>
+        <v>2.559490371286333</v>
       </c>
       <c r="R3">
-        <v>2.375977227622171</v>
+        <v>15.356942227718</v>
       </c>
       <c r="S3">
-        <v>0.01880957041071384</v>
+        <v>0.01815760537729637</v>
       </c>
       <c r="T3">
-        <v>0.01880957041071384</v>
+        <v>0.01617570729608992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H4">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I4">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J4">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N4">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O4">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P4">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q4">
-        <v>1.879897744169713</v>
+        <v>1.9204289429</v>
       </c>
       <c r="R4">
-        <v>1.879897744169713</v>
+        <v>11.5225736574</v>
       </c>
       <c r="S4">
-        <v>0.01488232655297372</v>
+        <v>0.01362395861750856</v>
       </c>
       <c r="T4">
-        <v>0.01488232655297372</v>
+        <v>0.01213690694514224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H5">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I5">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J5">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N5">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O5">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P5">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q5">
-        <v>1.235278304745658</v>
+        <v>1.393674227543</v>
       </c>
       <c r="R5">
-        <v>1.235278304745658</v>
+        <v>8.362045365258</v>
       </c>
       <c r="S5">
-        <v>0.009779156963214597</v>
+        <v>0.009887041159493057</v>
       </c>
       <c r="T5">
-        <v>0.009779156963214597</v>
+        <v>0.00880787309213823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H6">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I6">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J6">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N6">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O6">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P6">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q6">
-        <v>1.252489149879482</v>
+        <v>1.264007808184333</v>
       </c>
       <c r="R6">
-        <v>1.252489149879482</v>
+        <v>7.584046849106001</v>
       </c>
       <c r="S6">
-        <v>0.009915407681280838</v>
+        <v>0.00896715816254378</v>
       </c>
       <c r="T6">
-        <v>0.009915407681280838</v>
+        <v>0.007988395094014831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H7">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I7">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J7">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N7">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O7">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P7">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q7">
-        <v>3.742480980525809</v>
+        <v>4.132125736193</v>
       </c>
       <c r="R7">
-        <v>3.742480980525809</v>
+        <v>16.528502944772</v>
       </c>
       <c r="S7">
-        <v>0.02962758173587668</v>
+        <v>0.02931423744698632</v>
       </c>
       <c r="T7">
-        <v>0.02962758173587668</v>
+        <v>0.01740973051227797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H8">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J8">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N8">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O8">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P8">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q8">
-        <v>7.165151123945079</v>
+        <v>8.141294492062501</v>
       </c>
       <c r="R8">
-        <v>7.165151123945079</v>
+        <v>48.847766952375</v>
       </c>
       <c r="S8">
-        <v>0.05672336123529634</v>
+        <v>0.05775619017974024</v>
       </c>
       <c r="T8">
-        <v>0.05672336123529634</v>
+        <v>0.051452116480785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H9">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J9">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N9">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O9">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P9">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q9">
-        <v>12.32926637836087</v>
+        <v>14.27992950970834</v>
       </c>
       <c r="R9">
-        <v>12.32926637836087</v>
+        <v>128.519365587375</v>
       </c>
       <c r="S9">
-        <v>0.0976053984693761</v>
+        <v>0.1013050596953726</v>
       </c>
       <c r="T9">
-        <v>0.0976053984693761</v>
+        <v>0.1353714566867565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H10">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J10">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N10">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O10">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P10">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q10">
-        <v>9.755043012404588</v>
+        <v>10.7144727875</v>
       </c>
       <c r="R10">
-        <v>9.755043012404588</v>
+        <v>96.43025508750002</v>
       </c>
       <c r="S10">
-        <v>0.07722640026520677</v>
+        <v>0.07601090079640752</v>
       </c>
       <c r="T10">
-        <v>0.07722640026520677</v>
+        <v>0.1015714950055179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H11">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J11">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N11">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O11">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P11">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q11">
-        <v>6.410025775314856</v>
+        <v>7.775598592625001</v>
       </c>
       <c r="R11">
-        <v>6.410025775314856</v>
+        <v>69.980387333625</v>
       </c>
       <c r="S11">
-        <v>0.05074536479288529</v>
+        <v>0.05516186050201443</v>
       </c>
       <c r="T11">
-        <v>0.05074536479288529</v>
+        <v>0.07371143585684543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H12">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J12">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N12">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O12">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P12">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q12">
-        <v>6.499335172637656</v>
+        <v>7.052162650458334</v>
       </c>
       <c r="R12">
-        <v>6.499335172637656</v>
+        <v>63.46946385412501</v>
       </c>
       <c r="S12">
-        <v>0.05145238815058086</v>
+        <v>0.05002964179903365</v>
       </c>
       <c r="T12">
-        <v>0.05145238815058086</v>
+        <v>0.06685337838225655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H13">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J13">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N13">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O13">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P13">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q13">
-        <v>19.42023870785575</v>
+        <v>23.05398953637501</v>
       </c>
       <c r="R13">
-        <v>19.42023870785575</v>
+        <v>138.32393721825</v>
       </c>
       <c r="S13">
-        <v>0.153741518698752</v>
+        <v>0.1635502321360314</v>
       </c>
       <c r="T13">
-        <v>0.153741518698752</v>
+        <v>0.1456987652429044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H14">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I14">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J14">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N14">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O14">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P14">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q14">
-        <v>0.3515391668310582</v>
+        <v>0.3725157371885</v>
       </c>
       <c r="R14">
-        <v>0.3515391668310582</v>
+        <v>2.235094423131</v>
       </c>
       <c r="S14">
-        <v>0.002782981517566951</v>
+        <v>0.002642711153979463</v>
       </c>
       <c r="T14">
-        <v>0.002782981517566951</v>
+        <v>0.002354259893120821</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H15">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I15">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J15">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N15">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O15">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P15">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q15">
-        <v>0.6049028073954662</v>
+        <v>0.6533971315612223</v>
       </c>
       <c r="R15">
-        <v>0.6049028073954662</v>
+        <v>5.880574184051</v>
       </c>
       <c r="S15">
-        <v>0.00478875042027668</v>
+        <v>0.004635347490517604</v>
       </c>
       <c r="T15">
-        <v>0.00478875042027668</v>
+        <v>0.006194100708568382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H16">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I16">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J16">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N16">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O16">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P16">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q16">
-        <v>0.4786053543967275</v>
+        <v>0.4902549260333334</v>
       </c>
       <c r="R16">
-        <v>0.4786053543967275</v>
+        <v>4.4122943343</v>
       </c>
       <c r="S16">
-        <v>0.003788908836251462</v>
+        <v>0.003477979671677783</v>
       </c>
       <c r="T16">
-        <v>0.003788908836251462</v>
+        <v>0.004647538591830622</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H17">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I17">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J17">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N17">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O17">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P17">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q17">
-        <v>0.3144909411455792</v>
+        <v>0.3557828358423333</v>
       </c>
       <c r="R17">
-        <v>0.3144909411455792</v>
+        <v>3.202045522581</v>
       </c>
       <c r="S17">
-        <v>0.002489686951641991</v>
+        <v>0.002524004155559216</v>
       </c>
       <c r="T17">
-        <v>0.002489686951641991</v>
+        <v>0.003372764600790074</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H18">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I18">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J18">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N18">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O18">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P18">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q18">
-        <v>0.3188726702371151</v>
+        <v>0.3226810639352222</v>
       </c>
       <c r="R18">
-        <v>0.3188726702371151</v>
+        <v>2.904129575417</v>
       </c>
       <c r="S18">
-        <v>0.002524375180514622</v>
+        <v>0.002289172675698431</v>
       </c>
       <c r="T18">
-        <v>0.002524375180514622</v>
+        <v>0.003058965076854616</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H19">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I19">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J19">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N19">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O19">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P19">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q19">
-        <v>0.9528025880996345</v>
+        <v>1.054865895792333</v>
       </c>
       <c r="R19">
-        <v>0.9528025880996345</v>
+        <v>6.329195374754001</v>
       </c>
       <c r="S19">
-        <v>0.007542920512881439</v>
+        <v>0.007483457987044197</v>
       </c>
       <c r="T19">
-        <v>0.007542920512881439</v>
+        <v>0.006666640421229228</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H20">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I20">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J20">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N20">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O20">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P20">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q20">
-        <v>0.3966530380453214</v>
+        <v>0.4291459447945</v>
       </c>
       <c r="R20">
-        <v>0.3966530380453214</v>
+        <v>2.574875668767</v>
       </c>
       <c r="S20">
-        <v>0.003140128264277901</v>
+        <v>0.003044458694692943</v>
       </c>
       <c r="T20">
-        <v>0.003140128264277901</v>
+        <v>0.002712156790342234</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H21">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I21">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J21">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N21">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O21">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P21">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q21">
-        <v>0.682531447174032</v>
+        <v>0.7527272041341111</v>
       </c>
       <c r="R21">
-        <v>0.682531447174032</v>
+        <v>6.774544837206999</v>
       </c>
       <c r="S21">
-        <v>0.005403302339725913</v>
+        <v>0.005340017560821594</v>
       </c>
       <c r="T21">
-        <v>0.005403302339725913</v>
+        <v>0.007135733971383265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H22">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I22">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J22">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N22">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O22">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P22">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q22">
-        <v>0.5400259366759342</v>
+        <v>0.5647839605666668</v>
       </c>
       <c r="R22">
-        <v>0.5400259366759342</v>
+        <v>5.0830556451</v>
       </c>
       <c r="S22">
-        <v>0.004275148667852868</v>
+        <v>0.004006705551403224</v>
       </c>
       <c r="T22">
-        <v>0.004275148667852868</v>
+        <v>0.005354061965309164</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H23">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I23">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J23">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N23">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O23">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P23">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q23">
-        <v>0.3548503239841705</v>
+        <v>0.4098692913796667</v>
       </c>
       <c r="R23">
-        <v>0.3548503239841705</v>
+        <v>3.688823622417</v>
       </c>
       <c r="S23">
-        <v>0.002809194497594009</v>
+        <v>0.002907705741984804</v>
       </c>
       <c r="T23">
-        <v>0.002809194497594009</v>
+        <v>0.003885495582279481</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H24">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I24">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J24">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N24">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O24">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P24">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q24">
-        <v>0.3597943709639613</v>
+        <v>0.3717353556521111</v>
       </c>
       <c r="R24">
-        <v>0.3597943709639613</v>
+        <v>3.345618200869</v>
       </c>
       <c r="S24">
-        <v>0.00284833435074543</v>
+        <v>0.00263717495031156</v>
       </c>
       <c r="T24">
-        <v>0.00284833435074543</v>
+        <v>0.003523991947045936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H25">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I25">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J25">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N25">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O25">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P25">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q25">
-        <v>1.075078047871663</v>
+        <v>1.215227643529667</v>
       </c>
       <c r="R25">
-        <v>1.075078047871663</v>
+        <v>7.291365861178</v>
       </c>
       <c r="S25">
-        <v>0.008510921739217317</v>
+        <v>0.008621100607502527</v>
       </c>
       <c r="T25">
-        <v>0.008510921739217317</v>
+        <v>0.007680109634471414</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H26">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I26">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J26">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N26">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O26">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P26">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q26">
-        <v>1.166245785843515</v>
+        <v>1.2399355598775</v>
       </c>
       <c r="R26">
-        <v>1.166245785843515</v>
+        <v>7.439613359265</v>
       </c>
       <c r="S26">
-        <v>0.009232656765391459</v>
+        <v>0.008796384171673052</v>
       </c>
       <c r="T26">
-        <v>0.009232656765391459</v>
+        <v>0.007836261041494668</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H27">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I27">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J27">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N27">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O27">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P27">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q27">
-        <v>2.00679018593938</v>
+        <v>2.174862045451667</v>
       </c>
       <c r="R27">
-        <v>2.00679018593938</v>
+        <v>19.573758409065</v>
       </c>
       <c r="S27">
-        <v>0.01588687840233744</v>
+        <v>0.01542896477142213</v>
       </c>
       <c r="T27">
-        <v>0.01588687840233744</v>
+        <v>0.0206173456938545</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H28">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I28">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J28">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N28">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O28">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P28">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q28">
-        <v>1.587793140317619</v>
+        <v>1.6318358005</v>
       </c>
       <c r="R28">
-        <v>1.587793140317619</v>
+        <v>14.6865222045</v>
       </c>
       <c r="S28">
-        <v>0.01256986242260481</v>
+        <v>0.01157661339086506</v>
       </c>
       <c r="T28">
-        <v>0.01256986242260481</v>
+        <v>0.01546954340615624</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H29">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I29">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J29">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N29">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O29">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P29">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q29">
-        <v>1.043336758470659</v>
+        <v>1.184239337335</v>
       </c>
       <c r="R29">
-        <v>1.043336758470659</v>
+        <v>10.658154036015</v>
       </c>
       <c r="S29">
-        <v>0.008259639862028396</v>
+        <v>0.008401262532897542</v>
       </c>
       <c r="T29">
-        <v>0.008259639862028396</v>
+        <v>0.01122640024601022</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H30">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I30">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J30">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N30">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O30">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P30">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q30">
-        <v>1.057873326710771</v>
+        <v>1.074058585261667</v>
       </c>
       <c r="R30">
-        <v>1.057873326710771</v>
+        <v>9.666527267355001</v>
       </c>
       <c r="S30">
-        <v>0.008374719501960873</v>
+        <v>0.007619615280473672</v>
       </c>
       <c r="T30">
-        <v>0.008374719501960873</v>
+        <v>0.01018190427025143</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H31">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I31">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J31">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N31">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O31">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P31">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q31">
-        <v>3.16096215715847</v>
+        <v>3.511169071585</v>
       </c>
       <c r="R31">
-        <v>3.16096215715847</v>
+        <v>21.06701442951</v>
       </c>
       <c r="S31">
-        <v>0.02502395206884066</v>
+        <v>0.02490902998895331</v>
       </c>
       <c r="T31">
-        <v>0.02502395206884066</v>
+        <v>0.0221902156015921</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H32">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I32">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J32">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N32">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O32">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P32">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q32">
-        <v>4.237525890813463</v>
+        <v>4.5172171703955</v>
       </c>
       <c r="R32">
-        <v>4.237525890813463</v>
+        <v>18.068868681582</v>
       </c>
       <c r="S32">
-        <v>0.03354663533128508</v>
+        <v>0.0320461634486895</v>
       </c>
       <c r="T32">
-        <v>0.03354663533128508</v>
+        <v>0.01903222182064483</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H33">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I33">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J33">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N33">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O33">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P33">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q33">
-        <v>7.291623664215765</v>
+        <v>7.923253830970333</v>
       </c>
       <c r="R33">
-        <v>7.291623664215765</v>
+        <v>47.539522985822</v>
       </c>
       <c r="S33">
-        <v>0.05772458890851948</v>
+        <v>0.05620936026206148</v>
       </c>
       <c r="T33">
-        <v>0.05772458890851948</v>
+        <v>0.05007412266137465</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H34">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I34">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J34">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N34">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O34">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P34">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q34">
-        <v>5.769208020319244</v>
+        <v>5.944951444100001</v>
       </c>
       <c r="R34">
-        <v>5.769208020319244</v>
+        <v>35.6697086646</v>
       </c>
       <c r="S34">
-        <v>0.04567229147261259</v>
+        <v>0.04217483430301209</v>
       </c>
       <c r="T34">
-        <v>0.04567229147261259</v>
+        <v>0.03757146169723594</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H35">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I35">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J35">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N35">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O35">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P35">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q35">
-        <v>3.790938908867395</v>
+        <v>4.314309905747</v>
       </c>
       <c r="R35">
-        <v>3.790938908867395</v>
+        <v>25.885859434482</v>
       </c>
       <c r="S35">
-        <v>0.03001120191729171</v>
+        <v>0.03060669327876562</v>
       </c>
       <c r="T35">
-        <v>0.03001120191729171</v>
+        <v>0.02726598036972165</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H36">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I36">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J36">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N36">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O36">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P36">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q36">
-        <v>3.843757178419808</v>
+        <v>3.912909703012333</v>
       </c>
       <c r="R36">
-        <v>3.843757178419808</v>
+        <v>23.477458218074</v>
       </c>
       <c r="S36">
-        <v>0.03042934100910129</v>
+        <v>0.02775906917304967</v>
       </c>
       <c r="T36">
-        <v>0.03042934100910129</v>
+        <v>0.02472917372224677</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H37">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I37">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J37">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N37">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O37">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P37">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q37">
-        <v>11.48527964124868</v>
+        <v>12.791562506597</v>
       </c>
       <c r="R37">
-        <v>11.48527964124868</v>
+        <v>51.16625002638801</v>
       </c>
       <c r="S37">
-        <v>0.09092392535891715</v>
+        <v>0.09074624650261076</v>
       </c>
       <c r="T37">
-        <v>0.09092392535891715</v>
+        <v>0.05389421094334558</v>
       </c>
     </row>
   </sheetData>
